--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\UPDokument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Navngivning</t>
   </si>
@@ -90,12 +90,6 @@
     <t>for each method from SSD, Same UC number to OC#, after '.' give sequential number for each OC.</t>
   </si>
   <si>
-    <t>FS-UC1-seHistorik-OC1.1 : navn1</t>
-  </si>
-  <si>
-    <t>FS-UC1-seHistorik-OC1.2 : navn2</t>
-  </si>
-  <si>
     <t xml:space="preserve">navn matches to SSD each call </t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>for saving each doc file</t>
   </si>
   <si>
-    <t>FS-UC#-navn-OC#.# : navn</t>
-  </si>
-  <si>
     <t>FS-UC#-OC#.#-navn-SD</t>
   </si>
   <si>
@@ -208,6 +199,30 @@
   </si>
   <si>
     <t>FS-UC1-seHistorik-AD</t>
+  </si>
+  <si>
+    <t>FS-A.# : navn</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>name for each oc</t>
+  </si>
+  <si>
+    <t>FS-A : navn</t>
+  </si>
+  <si>
+    <t>UC number goes to A</t>
+  </si>
+  <si>
+    <t>FS-1 : seHistorik</t>
+  </si>
+  <si>
+    <t>FS-1.1 : seHistorik</t>
+  </si>
+  <si>
+    <t>FS-1.2 : angivOplysninger</t>
   </si>
 </sst>
 </file>
@@ -249,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,258 +558,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -816,31 +855,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Navngivning</t>
   </si>
@@ -201,28 +201,28 @@
     <t>FS-UC1-seHistorik-AD</t>
   </si>
   <si>
-    <t>FS-A.# : navn</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
     <t>name for each oc</t>
   </si>
   <si>
-    <t>FS-A : navn</t>
-  </si>
-  <si>
     <t>UC number goes to A</t>
   </si>
   <si>
-    <t>FS-1 : seHistorik</t>
-  </si>
-  <si>
-    <t>FS-1.1 : seHistorik</t>
-  </si>
-  <si>
     <t>FS-1.2 : angivOplysninger</t>
+  </si>
+  <si>
+    <t>FS-OC1.1 : seHistorik</t>
+  </si>
+  <si>
+    <t>remember to check Anders ppt (OOA-6)</t>
+  </si>
+  <si>
+    <t>FS-UC1 : seHistorik</t>
+  </si>
+  <si>
+    <t>FS-OC#.# : navn</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -703,16 +703,16 @@
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>22</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -734,10 +734,13 @@
       <c r="E20" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>21</v>

--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Navngivning</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>FS-OC#.# : navn</t>
+  </si>
+  <si>
+    <t>title in each visio diagram</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,6 +817,14 @@
       </c>
       <c r="F29" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">

--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Navngivning</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>title in each visio diagram</t>
+  </si>
+  <si>
+    <t>OC#.#-DCD: navn</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,6 +848,11 @@
       </c>
       <c r="E33" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Navngivning</t>
   </si>
@@ -229,15 +229,25 @@
   </si>
   <si>
     <t>OC#.#-DCD: navn</t>
+  </si>
+  <si>
+    <t>Navngiving form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -270,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,282 +596,308 @@
     <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E6" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="15" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/UPDokument/NavngivningForm.xlsx
+++ b/UPDokument/NavngivningForm.xlsx
@@ -294,10 +294,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,31 +593,31 @@
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -899,7 +899,7 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
